--- a/wt1.xlsx
+++ b/wt1.xlsx
@@ -3,16 +3,22 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PinnamaneniJa\Desktop\af\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="210" windowWidth="22470" windowHeight="32550" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="420" windowWidth="22470" windowHeight="32550" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Config" sheetId="4" r:id="rId1"/>
-    <sheet name="Runouts" sheetId="2" r:id="rId2"/>
-    <sheet name="Rates" sheetId="1" r:id="rId3"/>
-    <sheet name="contract id" sheetId="3" r:id="rId4"/>
-    <sheet name="docs" sheetId="5" r:id="rId5"/>
-    <sheet name="errors" sheetId="6" r:id="rId6"/>
+    <sheet name="CONFIG" sheetId="4" r:id="rId1"/>
+    <sheet name="TRAVEL" sheetId="7" r:id="rId2"/>
+    <sheet name="Runouts" sheetId="2" r:id="rId3"/>
+    <sheet name="Rates" sheetId="1" r:id="rId4"/>
+    <sheet name="contract id" sheetId="3" r:id="rId5"/>
+    <sheet name="docs" sheetId="5" r:id="rId6"/>
+    <sheet name="errors" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -21,6 +27,62 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+  <si>
+    <t>Transaction Type (PROJ/ACTS)</t>
+  </si>
+  <si>
+    <t>Num People</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>From</t>
+  </si>
+  <si>
+    <t>To</t>
+  </si>
+  <si>
+    <t>Duration</t>
+  </si>
+  <si>
+    <t>Expedia Avg</t>
+  </si>
+  <si>
+    <t>Est Airfare Cost</t>
+  </si>
+  <si>
+    <t>Rental Car</t>
+  </si>
+  <si>
+    <t>Lodging</t>
+  </si>
+  <si>
+    <t>Meals</t>
+  </si>
+  <si>
+    <t>ODC</t>
+  </si>
+  <si>
+    <t>Note: Content of first row is always ignored</t>
+  </si>
+  <si>
+    <t>Huntsville, AL</t>
+  </si>
+  <si>
+    <t>Tucson, AZ</t>
+  </si>
+  <si>
+    <t>Chattanooga,TN</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -339,23 +401,233 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="41.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:M5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>9</v>
+      </c>
+      <c r="C2">
+        <v>2018</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+      <c r="G2">
+        <v>1629</v>
+      </c>
+      <c r="H2">
+        <v>1791.9</v>
+      </c>
+      <c r="I2">
+        <v>825</v>
+      </c>
+      <c r="J2">
+        <v>1800</v>
+      </c>
+      <c r="K2">
+        <v>1050</v>
+      </c>
+      <c r="L2">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>2018</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3">
+        <v>1692</v>
+      </c>
+      <c r="H3">
+        <v>1861.2</v>
+      </c>
+      <c r="I3">
+        <v>825</v>
+      </c>
+      <c r="J3">
+        <v>1800</v>
+      </c>
+      <c r="K3">
+        <v>1050</v>
+      </c>
+      <c r="L3">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <v>2018</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="G4">
+        <v>2145</v>
+      </c>
+      <c r="H4">
+        <v>2359.5</v>
+      </c>
+      <c r="I4">
+        <v>825</v>
+      </c>
+      <c r="J4">
+        <v>1800</v>
+      </c>
+      <c r="K4">
+        <v>1050</v>
+      </c>
+      <c r="L4">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>2018</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <v>2176</v>
+      </c>
+      <c r="H5">
+        <v>2393.6</v>
+      </c>
+      <c r="I5">
+        <v>1100</v>
+      </c>
+      <c r="J5">
+        <v>2400</v>
+      </c>
+      <c r="K5">
+        <v>1400</v>
+      </c>
+      <c r="L5">
+        <v>360</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -400,7 +672,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>

--- a/wt1.xlsx
+++ b/wt1.xlsx
@@ -9,16 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="420" windowWidth="22470" windowHeight="32550" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="420" windowWidth="22470" windowHeight="32550" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="CONFIG" sheetId="4" r:id="rId1"/>
     <sheet name="TRAVEL" sheetId="7" r:id="rId2"/>
-    <sheet name="Runouts" sheetId="2" r:id="rId3"/>
-    <sheet name="Rates" sheetId="1" r:id="rId4"/>
-    <sheet name="contract id" sheetId="3" r:id="rId5"/>
-    <sheet name="docs" sheetId="5" r:id="rId6"/>
-    <sheet name="errors" sheetId="6" r:id="rId7"/>
+    <sheet name="Expedia" sheetId="8" r:id="rId3"/>
+    <sheet name="Runouts" sheetId="2" r:id="rId4"/>
+    <sheet name="Rates" sheetId="1" r:id="rId5"/>
+    <sheet name="contract id" sheetId="3" r:id="rId6"/>
+    <sheet name="docs" sheetId="5" r:id="rId7"/>
+    <sheet name="errors" sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -423,7 +424,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:M5"/>
     </sheetView>
   </sheetViews>
@@ -636,7 +637,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
@@ -690,4 +691,16 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/wt1.xlsx
+++ b/wt1.xlsx
@@ -9,17 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="420" windowWidth="22470" windowHeight="32550" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="630" windowWidth="22470" windowHeight="32550" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="CONFIG" sheetId="4" r:id="rId1"/>
     <sheet name="TRAVEL" sheetId="7" r:id="rId2"/>
-    <sheet name="Expedia" sheetId="8" r:id="rId3"/>
-    <sheet name="Runouts" sheetId="2" r:id="rId4"/>
-    <sheet name="Rates" sheetId="1" r:id="rId5"/>
-    <sheet name="contract id" sheetId="3" r:id="rId6"/>
-    <sheet name="docs" sheetId="5" r:id="rId7"/>
-    <sheet name="errors" sheetId="6" r:id="rId8"/>
+    <sheet name="TEAM" sheetId="2" r:id="rId3"/>
+    <sheet name="OUTPUT" sheetId="1" r:id="rId4"/>
+    <sheet name="LOG" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -31,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="92">
   <si>
     <t>Transaction Type (PROJ/ACTS)</t>
   </si>
@@ -82,13 +79,238 @@
   </si>
   <si>
     <t>Chattanooga,TN</t>
+  </si>
+  <si>
+    <t>ACTS</t>
+  </si>
+  <si>
+    <t>Date or Amount:</t>
+  </si>
+  <si>
+    <t>Concern</t>
+  </si>
+  <si>
+    <t>Center</t>
+  </si>
+  <si>
+    <t>Contract</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Site</t>
+  </si>
+  <si>
+    <t>LOE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RunOut </t>
+  </si>
+  <si>
+    <t>G&amp;A</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>On</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>P4</t>
+  </si>
+  <si>
+    <t>P5</t>
+  </si>
+  <si>
+    <t>Off</t>
+  </si>
+  <si>
+    <t>P6</t>
+  </si>
+  <si>
+    <t>P7</t>
+  </si>
+  <si>
+    <t>P8</t>
+  </si>
+  <si>
+    <t>P9</t>
+  </si>
+  <si>
+    <t>P10</t>
+  </si>
+  <si>
+    <t>P11</t>
+  </si>
+  <si>
+    <t>P12</t>
+  </si>
+  <si>
+    <t>P13</t>
+  </si>
+  <si>
+    <t>P14</t>
+  </si>
+  <si>
+    <t>P15</t>
+  </si>
+  <si>
+    <t>P16</t>
+  </si>
+  <si>
+    <t>P17</t>
+  </si>
+  <si>
+    <t>P18</t>
+  </si>
+  <si>
+    <t>P19</t>
+  </si>
+  <si>
+    <t>P20</t>
+  </si>
+  <si>
+    <t>P21</t>
+  </si>
+  <si>
+    <t>P22</t>
+  </si>
+  <si>
+    <t>P23</t>
+  </si>
+  <si>
+    <t>P24</t>
+  </si>
+  <si>
+    <t>P25</t>
+  </si>
+  <si>
+    <t>P26</t>
+  </si>
+  <si>
+    <t>P27</t>
+  </si>
+  <si>
+    <t>P28</t>
+  </si>
+  <si>
+    <t>P29</t>
+  </si>
+  <si>
+    <t>P30</t>
+  </si>
+  <si>
+    <t>P31</t>
+  </si>
+  <si>
+    <t>P32</t>
+  </si>
+  <si>
+    <t>P33</t>
+  </si>
+  <si>
+    <t>P34</t>
+  </si>
+  <si>
+    <t>P35</t>
+  </si>
+  <si>
+    <t>P36</t>
+  </si>
+  <si>
+    <t>P37</t>
+  </si>
+  <si>
+    <t>P38</t>
+  </si>
+  <si>
+    <t>P39</t>
+  </si>
+  <si>
+    <t>P40</t>
+  </si>
+  <si>
+    <t>P41</t>
+  </si>
+  <si>
+    <t>P42</t>
+  </si>
+  <si>
+    <t>P43</t>
+  </si>
+  <si>
+    <t>P44</t>
+  </si>
+  <si>
+    <t>P45</t>
+  </si>
+  <si>
+    <t>P46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Last </t>
+  </si>
+  <si>
+    <t>First</t>
+  </si>
+  <si>
+    <t>ID #</t>
+  </si>
+  <si>
+    <t>SEESAW</t>
+  </si>
+  <si>
+    <t>IH</t>
+  </si>
+  <si>
+    <t>W31P4Q-16-A-0003-0001</t>
+  </si>
+  <si>
+    <t>W31P4Q-15-D-0006</t>
+  </si>
+  <si>
+    <t>W31P4Q-09-A-0021-0020</t>
+  </si>
+  <si>
+    <t>In House</t>
+  </si>
+  <si>
+    <t>SEI</t>
+  </si>
+  <si>
+    <t>Contracts: (1,6, 20, IH, SEI, ALL):</t>
+  </si>
+  <si>
+    <t>Create ACTS output (Y/N):</t>
+  </si>
+  <si>
+    <t>LOG RUN (Y/N):</t>
+  </si>
+  <si>
+    <t>ALL</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Y</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,16 +318,41 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -113,14 +360,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="3" borderId="1" xfId="2" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Calculation" xfId="2" builtinId="22"/>
+    <cellStyle name="Input" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -399,20 +675,81 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="6">
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -425,7 +762,7 @@
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:M5"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -635,12 +972,1129 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T37" sqref="T37"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2" s="1">
+        <v>43466</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>79</v>
+      </c>
+      <c r="I3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3" s="1">
+        <v>43466</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>79</v>
+      </c>
+      <c r="I4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
+        <v>43466</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>79</v>
+      </c>
+      <c r="I5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>43466</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>79</v>
+      </c>
+      <c r="I6" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>43466</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>79</v>
+      </c>
+      <c r="I7" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1">
+        <v>43466</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>0.5</v>
+      </c>
+      <c r="F8" t="s">
+        <v>79</v>
+      </c>
+      <c r="I8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1">
+        <v>43466</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="F9" t="s">
+        <v>79</v>
+      </c>
+      <c r="I9" t="s">
+        <v>34</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9" s="1">
+        <v>43466</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="F10" t="s">
+        <v>79</v>
+      </c>
+      <c r="I10" t="s">
+        <v>34</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10" s="1">
+        <v>43466</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s">
+        <v>79</v>
+      </c>
+      <c r="I11" t="s">
+        <v>29</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11" s="1">
+        <v>43466</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
+        <v>79</v>
+      </c>
+      <c r="I12" t="s">
+        <v>29</v>
+      </c>
+      <c r="J12">
+        <v>0.4</v>
+      </c>
+      <c r="K12" s="1">
+        <v>43466</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>79</v>
+      </c>
+      <c r="I13" t="s">
+        <v>34</v>
+      </c>
+      <c r="J13">
+        <v>0.1</v>
+      </c>
+      <c r="K13" s="1">
+        <v>43466</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14">
+        <v>13</v>
+      </c>
+      <c r="F14" t="s">
+        <v>80</v>
+      </c>
+      <c r="I14" t="s">
+        <v>29</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14" s="1">
+        <v>43466</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15">
+        <v>14</v>
+      </c>
+      <c r="F15" t="s">
+        <v>80</v>
+      </c>
+      <c r="I15" t="s">
+        <v>29</v>
+      </c>
+      <c r="J15">
+        <v>0.5</v>
+      </c>
+      <c r="K15" s="1">
+        <v>43466</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16">
+        <v>15</v>
+      </c>
+      <c r="F16" t="s">
+        <v>80</v>
+      </c>
+      <c r="I16" t="s">
+        <v>29</v>
+      </c>
+      <c r="J16">
+        <v>0.5</v>
+      </c>
+      <c r="K16" s="1">
+        <v>43466</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17">
+        <v>16</v>
+      </c>
+      <c r="F17" t="s">
+        <v>80</v>
+      </c>
+      <c r="I17" t="s">
+        <v>29</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17" s="1">
+        <v>43466</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18">
+        <v>17</v>
+      </c>
+      <c r="F18" t="s">
+        <v>80</v>
+      </c>
+      <c r="I18" t="s">
+        <v>29</v>
+      </c>
+      <c r="J18">
+        <v>0.15</v>
+      </c>
+      <c r="K18" s="1">
+        <v>43466</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19">
+        <v>18</v>
+      </c>
+      <c r="F19" t="s">
+        <v>80</v>
+      </c>
+      <c r="I19" t="s">
+        <v>29</v>
+      </c>
+      <c r="J19">
+        <v>0.3</v>
+      </c>
+      <c r="K19" s="1">
+        <v>43466</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20">
+        <v>19</v>
+      </c>
+      <c r="F20" t="s">
+        <v>80</v>
+      </c>
+      <c r="I20" t="s">
+        <v>29</v>
+      </c>
+      <c r="J20">
+        <v>0.18</v>
+      </c>
+      <c r="K20" s="1">
+        <v>43466</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21">
+        <v>20</v>
+      </c>
+      <c r="F21" t="s">
+        <v>80</v>
+      </c>
+      <c r="I21" t="s">
+        <v>29</v>
+      </c>
+      <c r="J21">
+        <v>0.12</v>
+      </c>
+      <c r="K21" s="1">
+        <v>43466</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22">
+        <v>21</v>
+      </c>
+      <c r="F22" t="s">
+        <v>80</v>
+      </c>
+      <c r="I22" t="s">
+        <v>29</v>
+      </c>
+      <c r="J22">
+        <v>0.4</v>
+      </c>
+      <c r="K22" s="1">
+        <v>43466</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23">
+        <v>22</v>
+      </c>
+      <c r="F23" t="s">
+        <v>80</v>
+      </c>
+      <c r="I23" t="s">
+        <v>29</v>
+      </c>
+      <c r="J23">
+        <v>0.6</v>
+      </c>
+      <c r="K23" s="1">
+        <v>43466</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24">
+        <v>23</v>
+      </c>
+      <c r="F24" t="s">
+        <v>80</v>
+      </c>
+      <c r="I24" t="s">
+        <v>29</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24" s="1">
+        <v>43466</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25">
+        <v>24</v>
+      </c>
+      <c r="F25" t="s">
+        <v>80</v>
+      </c>
+      <c r="I25" t="s">
+        <v>29</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25" s="1">
+        <v>43466</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26">
+        <v>25</v>
+      </c>
+      <c r="F26" t="s">
+        <v>80</v>
+      </c>
+      <c r="I26" t="s">
+        <v>34</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26" s="1">
+        <v>43466</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27">
+        <v>26</v>
+      </c>
+      <c r="F27" t="s">
+        <v>80</v>
+      </c>
+      <c r="I27" t="s">
+        <v>29</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27" s="1">
+        <v>43466</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28">
+        <v>27</v>
+      </c>
+      <c r="F28" t="s">
+        <v>80</v>
+      </c>
+      <c r="I28" t="s">
+        <v>34</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28" s="1">
+        <v>43466</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29">
+        <v>28</v>
+      </c>
+      <c r="F29" t="s">
+        <v>80</v>
+      </c>
+      <c r="I29" t="s">
+        <v>34</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29" s="1">
+        <v>43466</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30">
+        <v>29</v>
+      </c>
+      <c r="F30" t="s">
+        <v>80</v>
+      </c>
+      <c r="I30" t="s">
+        <v>34</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30" s="1">
+        <v>43466</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31">
+        <v>30</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+      <c r="I31" t="s">
+        <v>34</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31" s="1">
+        <v>43466</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32">
+        <v>31</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+      <c r="I32" t="s">
+        <v>34</v>
+      </c>
+      <c r="J32">
+        <v>0.5</v>
+      </c>
+      <c r="K32" s="1">
+        <v>43466</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33">
+        <v>32</v>
+      </c>
+      <c r="F33">
+        <v>2</v>
+      </c>
+      <c r="I33" t="s">
+        <v>34</v>
+      </c>
+      <c r="J33">
+        <v>0.5</v>
+      </c>
+      <c r="K33" s="1">
+        <v>43466</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>62</v>
+      </c>
+      <c r="B34" t="s">
+        <v>62</v>
+      </c>
+      <c r="C34">
+        <v>33</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+      <c r="I34" t="s">
+        <v>29</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34" s="1">
+        <v>43466</v>
+      </c>
+      <c r="L34" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>63</v>
+      </c>
+      <c r="B35" t="s">
+        <v>63</v>
+      </c>
+      <c r="C35">
+        <v>34</v>
+      </c>
+      <c r="F35">
+        <v>2</v>
+      </c>
+      <c r="I35" t="s">
+        <v>29</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="K35" s="1">
+        <v>43466</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>64</v>
+      </c>
+      <c r="B36" t="s">
+        <v>64</v>
+      </c>
+      <c r="C36">
+        <v>35</v>
+      </c>
+      <c r="F36">
+        <v>2</v>
+      </c>
+      <c r="I36" t="s">
+        <v>29</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="K36" s="1">
+        <v>43466</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>65</v>
+      </c>
+      <c r="B37" t="s">
+        <v>65</v>
+      </c>
+      <c r="C37">
+        <v>36</v>
+      </c>
+      <c r="F37">
+        <v>2</v>
+      </c>
+      <c r="I37" t="s">
+        <v>29</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="K37" s="1">
+        <v>43466</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>66</v>
+      </c>
+      <c r="B38" t="s">
+        <v>66</v>
+      </c>
+      <c r="C38">
+        <v>37</v>
+      </c>
+      <c r="F38">
+        <v>2</v>
+      </c>
+      <c r="I38" t="s">
+        <v>29</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38" s="1">
+        <v>43466</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>67</v>
+      </c>
+      <c r="B39" t="s">
+        <v>67</v>
+      </c>
+      <c r="C39">
+        <v>38</v>
+      </c>
+      <c r="F39">
+        <v>2</v>
+      </c>
+      <c r="I39" t="s">
+        <v>29</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="K39" s="1">
+        <v>43466</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>68</v>
+      </c>
+      <c r="B40" t="s">
+        <v>68</v>
+      </c>
+      <c r="C40">
+        <v>39</v>
+      </c>
+      <c r="F40">
+        <v>2</v>
+      </c>
+      <c r="I40" t="s">
+        <v>29</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
+      <c r="K40" s="1">
+        <v>43466</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>69</v>
+      </c>
+      <c r="B41" t="s">
+        <v>69</v>
+      </c>
+      <c r="C41">
+        <v>40</v>
+      </c>
+      <c r="F41">
+        <v>2</v>
+      </c>
+      <c r="I41" t="s">
+        <v>29</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="K41" s="1">
+        <v>43466</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>70</v>
+      </c>
+      <c r="B42" t="s">
+        <v>70</v>
+      </c>
+      <c r="C42">
+        <v>41</v>
+      </c>
+      <c r="F42">
+        <v>2</v>
+      </c>
+      <c r="I42" t="s">
+        <v>29</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+      <c r="K42" s="1">
+        <v>43466</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>71</v>
+      </c>
+      <c r="B43" t="s">
+        <v>71</v>
+      </c>
+      <c r="C43">
+        <v>42</v>
+      </c>
+      <c r="F43">
+        <v>2</v>
+      </c>
+      <c r="I43" t="s">
+        <v>29</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+      <c r="K43" s="1">
+        <v>43466</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>72</v>
+      </c>
+      <c r="B44" t="s">
+        <v>72</v>
+      </c>
+      <c r="C44">
+        <v>43</v>
+      </c>
+      <c r="F44">
+        <v>2</v>
+      </c>
+      <c r="I44" t="s">
+        <v>29</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+      <c r="K44" s="1">
+        <v>43466</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>73</v>
+      </c>
+      <c r="B45" t="s">
+        <v>73</v>
+      </c>
+      <c r="C45">
+        <v>44</v>
+      </c>
+      <c r="F45">
+        <v>2</v>
+      </c>
+      <c r="I45" t="s">
+        <v>29</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
+      <c r="K45" s="1">
+        <v>43466</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>74</v>
+      </c>
+      <c r="B46" t="s">
+        <v>74</v>
+      </c>
+      <c r="C46">
+        <v>45</v>
+      </c>
+      <c r="F46">
+        <v>2</v>
+      </c>
+      <c r="I46" t="s">
+        <v>29</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+      <c r="K46" s="1">
+        <v>43466</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>75</v>
+      </c>
+      <c r="B47" t="s">
+        <v>75</v>
+      </c>
+      <c r="C47">
+        <v>46</v>
+      </c>
+      <c r="F47">
+        <v>2</v>
+      </c>
+      <c r="I47" t="s">
+        <v>29</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+      <c r="K47" s="1">
+        <v>43466</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -667,40 +2121,4 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/wt1.xlsx
+++ b/wt1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="630" windowWidth="22470" windowHeight="32550" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="840" windowWidth="22470" windowHeight="32550"/>
   </bookViews>
   <sheets>
     <sheet name="CONFIG" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="102">
   <si>
     <t>Transaction Type (PROJ/ACTS)</t>
   </si>
@@ -282,18 +282,12 @@
     <t>W31P4Q-09-A-0021-0020</t>
   </si>
   <si>
-    <t>In House</t>
-  </si>
-  <si>
     <t>SEI</t>
   </si>
   <si>
     <t>Contracts: (1,6, 20, IH, SEI, ALL):</t>
   </si>
   <si>
-    <t>Create ACTS output (Y/N):</t>
-  </si>
-  <si>
     <t>LOG RUN (Y/N):</t>
   </si>
   <si>
@@ -304,13 +298,49 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>GA</t>
+  </si>
+  <si>
+    <t>Variables</t>
+  </si>
+  <si>
+    <t>Input</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>RUN_LOG.csv</t>
+  </si>
+  <si>
+    <t>CoEqs.txt</t>
+  </si>
+  <si>
+    <t>Rates</t>
+  </si>
+  <si>
+    <t>Travel (Y/N)</t>
+  </si>
+  <si>
+    <t>travel</t>
+  </si>
+  <si>
+    <t>Create ACTS/PROJ output (Y/N):</t>
+  </si>
+  <si>
+    <t>Program Version/Name/PY</t>
+  </si>
+  <si>
+    <t>2M.py</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -329,6 +359,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -352,7 +390,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -375,13 +413,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -393,9 +441,11 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="3" borderId="1" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Calculation" xfId="2" builtinId="22"/>
+    <cellStyle name="Heading 1" xfId="3" builtinId="16"/>
     <cellStyle name="Input" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -675,81 +725,142 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B3" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B4" s="6">
         <v>350000</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="C4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B7" s="4" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="C7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8" s="4">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>84</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -974,7 +1085,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="T37" sqref="T37"/>
     </sheetView>
   </sheetViews>

--- a/wt1.xlsx
+++ b/wt1.xlsx
@@ -728,7 +728,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/wt1.xlsx
+++ b/wt1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="840" windowWidth="22470" windowHeight="32550"/>
+    <workbookView xWindow="0" yWindow="1050" windowWidth="22470" windowHeight="32550"/>
   </bookViews>
   <sheets>
     <sheet name="CONFIG" sheetId="4" r:id="rId1"/>
@@ -728,7 +728,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1"/>
+      <selection activeCell="I10" sqref="I10:I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/wt1.xlsx
+++ b/wt1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1050" windowWidth="22470" windowHeight="32550"/>
+    <workbookView xWindow="0" yWindow="1260" windowWidth="22470" windowHeight="32550"/>
   </bookViews>
   <sheets>
     <sheet name="CONFIG" sheetId="4" r:id="rId1"/>
@@ -728,7 +728,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10:I11"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/wt1.xlsx
+++ b/wt1.xlsx
@@ -728,7 +728,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
